--- a/NEW HR/RODENAS, ALBERT RAPHAEL.xlsx
+++ b/NEW HR/RODENAS, ALBERT RAPHAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>5/3-6/1/2023</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>11/27-30/2023</t>
   </si>
 </sst>
 </file>
@@ -2964,9 +2973,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8:N8"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3145,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3146,7 +3155,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4524,13 +4533,15 @@
         <v>44986</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -4542,13 +4553,15 @@
         <v>45017</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4560,13 +4573,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -4578,13 +4593,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4592,15 +4609,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45108</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -4608,15 +4629,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -4624,15 +4649,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45170</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
@@ -4640,15 +4669,19 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="42">
+        <v>45200</v>
+      </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="10"/>
@@ -4656,7 +4689,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45231</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -4672,7 +4707,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="42">
+        <v>45261</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
@@ -4688,7 +4725,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="42">
+        <v>45292</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
@@ -5486,10 +5525,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A17"/>
-      <selection activeCell="O7" sqref="O7"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A17" activePane="bottomLeft"/>
+      <selection activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,7 +5698,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>192.25</v>
+        <v>185.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -6005,10 +6044,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="42">
+        <v>45200</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="41">
+        <v>3</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="21"/>
       <c r="G25" s="14" t="str">
@@ -6018,13 +6063,21 @@
       <c r="H25" s="41"/>
       <c r="I25" s="10"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="42">
+        <v>45231</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="41">
+        <v>4</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="21"/>
       <c r="G26" s="14" t="str">
@@ -6034,7 +6087,9 @@
       <c r="H26" s="41"/>
       <c r="I26" s="10"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
